--- a/data/gems/EnzymeActivity.xlsx
+++ b/data/gems/EnzymeActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1A5EF-16F5-4E1C-94D5-42C7D1DEC46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130E557-8007-4B76-BC09-EC9BD267CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
   <si>
     <t>Rxn</t>
   </si>
@@ -141,9 +141,6 @@
     <t>GLUNm</t>
   </si>
   <si>
-    <t>ASPGLUm</t>
-  </si>
-  <si>
     <t>ASPTAm</t>
   </si>
   <si>
@@ -171,20 +168,220 @@
     <t>2.6.1.1</t>
   </si>
   <si>
-    <t>DOI: 10.1016/0005-2744(73)90320-3</t>
-  </si>
-  <si>
     <t>MDH</t>
+  </si>
+  <si>
+    <t>Sus scrofa</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1976.tb10331.x</t>
+  </si>
+  <si>
+    <t>1.1.1.37</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/la1040882</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0003-9861(83)90303-x</t>
+  </si>
+  <si>
+    <t>5.3.1.9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.bbapap.2008.11.004</t>
+  </si>
+  <si>
+    <t>2.7.1.11</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0076-6879(75)42100-0</t>
+  </si>
+  <si>
+    <t>4.1.2.13</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/BJ20031941</t>
+  </si>
+  <si>
+    <t>5.3.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(75)41096-5</t>
+  </si>
+  <si>
+    <t>1.2.1.12</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(82)90177-x</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0076-6879(75)42105-x</t>
+  </si>
+  <si>
+    <t>2.7.2.3</t>
+  </si>
+  <si>
+    <t>5.4.2.11</t>
+  </si>
+  <si>
+    <t>4.2.1.11</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/BF01888143</t>
+  </si>
+  <si>
+    <t>2.7.1.40</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/1357-2725(95)00090-c</t>
+  </si>
+  <si>
+    <t>DOI: 10.1186/s12935-015-0171-7</t>
+  </si>
+  <si>
+    <t>1.1.1.27</t>
+  </si>
+  <si>
+    <t>1.1.1.28</t>
+  </si>
+  <si>
+    <t>1.1.1.49</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0306-4522(90)90074-e</t>
+  </si>
+  <si>
+    <t>3.1.1.31</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/BJ20110170</t>
+  </si>
+  <si>
+    <t>1.1.1.44</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0021-9258(17)32951-4</t>
+  </si>
+  <si>
+    <t>5.3.1.6</t>
+  </si>
+  <si>
+    <t>Pisum sativum</t>
+  </si>
+  <si>
+    <t>DOI: 10.1104/pp.97.2.730</t>
+  </si>
+  <si>
+    <t>5.1.3.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1985.tb08845.x</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(80)90090-x</t>
+  </si>
+  <si>
+    <t>2.2.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0014-5793(95)01446-2</t>
+  </si>
+  <si>
+    <t>2.7.6.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.271.33.19894</t>
+  </si>
+  <si>
+    <t>5.4.2.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/00327489008050198</t>
+  </si>
+  <si>
+    <t>1.2.4.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1093/oxfordjournals.jbchem.a131181</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1161/01.hyp.35.4.875</t>
+  </si>
+  <si>
+    <t>Rattus rattus</t>
+  </si>
+  <si>
+    <t>4.2.1.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1023/a:1016304909287</t>
+  </si>
+  <si>
+    <t>1.1.1.41</t>
+  </si>
+  <si>
+    <t>DOI: 10.1073/pnas.75.1.252</t>
+  </si>
+  <si>
+    <t>Urocitellus richardsonii</t>
+  </si>
+  <si>
+    <t>1.2.4.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.bbapap.2020.140448</t>
+  </si>
+  <si>
+    <t>Pigeon</t>
+  </si>
+  <si>
+    <t>6.2.1.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.273.42.27573</t>
+  </si>
+  <si>
+    <t>1.3.5.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.bbrc.2003.10.065</t>
+  </si>
+  <si>
+    <t>4.2.1.2</t>
+  </si>
+  <si>
+    <t>PMID: 3771571</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,13 +404,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -527,6 +727,18 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>191.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -535,6 +747,18 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>620</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -543,6 +767,18 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -551,6 +787,18 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>22.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -559,6 +807,18 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>10240</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -567,6 +827,18 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -575,6 +847,18 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -583,6 +867,18 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>210</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -591,6 +887,18 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -599,6 +907,18 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>191</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -607,6 +927,18 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -615,6 +947,18 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -623,6 +967,18 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -631,6 +987,18 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>1065</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -639,133 +1007,337 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>1.89</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>1700</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>6570</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>0.88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>0.88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22">
+        <v>22.2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>1442</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <v>0.127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26">
+        <v>6.13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>252</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29">
+        <v>22.1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>450</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -773,19 +1345,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0.68</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -793,7 +1365,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -801,38 +1385,46 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>182</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/gems/EnzymeActivity.xlsx
+++ b/data/gems/EnzymeActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130E557-8007-4B76-BC09-EC9BD267CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B2E7A-2FAB-47B8-9E59-E1CF3D722DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Activity(umol/min/mg)</t>
   </si>
   <si>
-    <t>DOI: 10.1016/j.jhep.2004.03.021</t>
-  </si>
-  <si>
     <t>Homo sapiens</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>PMID: 3771571</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj2290399</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,16 +728,16 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>191.5</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -748,16 +748,16 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>620</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -788,16 +788,16 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>22.3</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -808,16 +808,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>10240</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -828,16 +828,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -848,16 +848,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -868,16 +868,16 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -888,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -908,16 +908,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -928,16 +928,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>1.7470000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -948,16 +948,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>1.7470000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -968,16 +968,16 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -988,16 +988,16 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>1065</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1008,16 +1008,16 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>1.89</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1028,16 +1028,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
       </c>
       <c r="E17">
         <v>1700</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1048,16 +1048,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>6570</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1068,16 +1068,16 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0.88</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1088,16 +1088,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0.88</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1108,16 +1108,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1128,16 +1128,16 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>22.2</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1148,16 +1148,16 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>1442</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1168,16 +1168,16 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1188,16 +1188,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>0.127</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1208,16 +1208,16 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>6.13</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1228,16 +1228,16 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1248,16 +1248,16 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28">
         <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1268,16 +1268,16 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29">
         <v>22.1</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1288,16 +1288,16 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>3.9E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1308,16 +1308,16 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>450</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1328,16 +1328,16 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1348,16 +1348,16 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E33">
-        <v>0.68</v>
+        <v>345</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1368,16 +1368,16 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34">
         <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1388,36 +1388,36 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>182</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/gems/EnzymeActivity.xlsx
+++ b/data/gems/EnzymeActivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B2E7A-2FAB-47B8-9E59-E1CF3D722DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA174850-C293-4E4E-9876-4FFEA8060EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>Rxn</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>DOI: 10.1042/bj2290399</t>
+  </si>
+  <si>
+    <t>LDH_Lm</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,127 +965,127 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>201</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>1065</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>1.89</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>1065</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>1700</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
+        <v>1.89</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>6570</v>
+        <v>1700</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19">
-        <v>0.88</v>
+        <v>6570</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1102,290 +1105,290 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>0.88</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
       <c r="E22">
-        <v>22.2</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23">
-        <v>1442</v>
+        <v>22.2</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>1442</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E25">
-        <v>0.127</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26">
-        <v>6.13</v>
+        <v>0.127</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E27">
-        <v>31</v>
+        <v>6.13</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29">
-        <v>22.1</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E30">
-        <v>3.9E-2</v>
+        <v>22.1</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>450</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
       <c r="E32">
-        <v>182</v>
+        <v>450</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E33">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E34">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -1402,27 +1405,47 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36">
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
         <v>182</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data/gems/EnzymeActivity.xlsx
+++ b/data/gems/EnzymeActivity.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA174850-C293-4E4E-9876-4FFEA8060EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D03D95-B8DD-4855-BC85-ED7F3DB65249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t>Rxn</t>
   </si>
@@ -367,13 +378,52 @@
   </si>
   <si>
     <t>LDH_Lm</t>
+  </si>
+  <si>
+    <t>Activity(mmol/hr/g)</t>
+  </si>
+  <si>
+    <t>EX_glc__D_e</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1042/bj3590443</t>
+  </si>
+  <si>
+    <t>EX_lac__L_e</t>
+  </si>
+  <si>
+    <t>EX_lac__D_e</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>BIOMASS_psc</t>
+  </si>
+  <si>
+    <t>EX_aa_e</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.4233/uuid:177e9f4c-f847-436d-9fd4-9ed97ba709d9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1371/journal.pone.0018457</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +435,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,9 +467,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,15 +752,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,715 +777,855 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3">
+        <v>6360</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4">
+        <v>6360</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="F5">
+        <f>E5*60</f>
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="E2">
+      <c r="E6">
         <v>191.5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F6">
+        <f>E6*60</f>
+        <v>11490</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>620</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F7">
+        <f t="shared" ref="F7:F41" si="0">E7*60</f>
+        <v>37200</v>
+      </c>
+      <c r="G7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>128</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5">
-        <v>22.3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6">
-        <v>10240</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7680</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>210</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22.3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1338</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10240</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>614400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11">
-        <v>191</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>1.7470000000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>1.7470000000000001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>1.7470000000000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5460</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
       <c r="E15">
-        <v>201</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>11460</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
       <c r="E16">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>104.82000000000001</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>104.82000000000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="F18">
+        <f>E18*60</f>
+        <v>104.82000000000001</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>201</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>12060</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
         <v>1065</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>63900</v>
+      </c>
+      <c r="G20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17">
-        <v>1.89</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18">
-        <v>1700</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <v>6570</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>0.88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
       <c r="E21">
+        <v>1.89</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>1700</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>102000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>6570</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>394200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
         <v>0.88</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="G24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23">
-        <v>22.2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24">
-        <v>1442</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
       <c r="E25">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.88</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>0.127</v>
-      </c>
-      <c r="F26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>6.13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22.2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1332</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>31</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1442</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>86520</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>252</v>
-      </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E30">
-        <v>22.1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.127</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E31">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.13</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>367.8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
       <c r="E32">
-        <v>450</v>
-      </c>
-      <c r="F32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="G32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="E33">
-        <v>182</v>
-      </c>
-      <c r="F33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>15120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E34">
-        <v>345</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22.1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1326</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>170</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
         <v>47</v>
       </c>
       <c r="E36">
-        <v>170</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -1439,15 +1636,139 @@
       <c r="E37">
         <v>182</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>10920</v>
+      </c>
+      <c r="G37" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38">
+        <v>345</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>20700</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>170</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>170</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>182</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>10920</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>